--- a/data/raw/SAE/2017/PLANILLA_Estimaciones_comunales_tasa_pobreza_por_ingresos_multidimensional_2017.xlsx
+++ b/data/raw/SAE/2017/PLANILLA_Estimaciones_comunales_tasa_pobreza_por_ingresos_multidimensional_2017.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Marizza Espinoza\Casen 2017\22. SAE\8. Publicacion\Publicación SAE 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/data/raw/SAE/2017/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1C1630-A84C-4003-AFD4-5FCAC363DF35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{4E1C1630-A84C-4003-AFD4-5FCAC363DF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C1D2364-4906-413C-A8D5-10ED5CDAD0CE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{EC6708B5-2DA6-46FC-B954-615AA19C5DB0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EC6708B5-2DA6-46FC-B954-615AA19C5DB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos 2017" sheetId="1" r:id="rId1"/>
     <sheet name="Multidimensional 2017" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Multidimensional 2017'!$A$3:$H$348</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1275,9 +1278,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1296,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1595,15 +1598,15 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" customWidth="1"/>
     <col min="4" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>349</v>
       </c>
@@ -1614,7 +1617,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>324</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1101</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1107</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1401</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1402</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1403</v>
       </c>
@@ -1762,7 +1765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1404</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1405</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2101</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2102</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2103</v>
       </c>
@@ -1892,7 +1895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2104</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2201</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2202</v>
       </c>
@@ -1966,7 +1969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2203</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>2301</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2302</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>3101</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>3102</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>3103</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>3201</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>3202</v>
       </c>
@@ -2174,7 +2177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>3301</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>3302</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>3303</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>3304</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>4101</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>4102</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>4103</v>
       </c>
@@ -2356,7 +2359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>4104</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>4105</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>4106</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>4201</v>
       </c>
@@ -2460,7 +2463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>4202</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>4203</v>
       </c>
@@ -2512,7 +2515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>4204</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>4301</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>4302</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>4303</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>4304</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>4305</v>
       </c>
@@ -2668,7 +2671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>5101</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>5102</v>
       </c>
@@ -2720,7 +2723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>5103</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>5104</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>5105</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>5107</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>5109</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>5201</v>
       </c>
@@ -2868,7 +2871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>5301</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>5302</v>
       </c>
@@ -2920,7 +2923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>5303</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>5304</v>
       </c>
@@ -2972,7 +2975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>5401</v>
       </c>
@@ -2998,7 +3001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>5402</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>5403</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>5404</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>5405</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>5501</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>5502</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>5503</v>
       </c>
@@ -3180,7 +3183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>5504</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>5506</v>
       </c>
@@ -3232,7 +3235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>5601</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>5602</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>5603</v>
       </c>
@@ -3310,7 +3313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>5604</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>5605</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>5606</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>5701</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>5702</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>5703</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>5704</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>5705</v>
       </c>
@@ -3518,7 +3521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>5706</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>5801</v>
       </c>
@@ -3570,7 +3573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>5802</v>
       </c>
@@ -3596,7 +3599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>5803</v>
       </c>
@@ -3622,7 +3625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>5804</v>
       </c>
@@ -3648,7 +3651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>6101</v>
       </c>
@@ -3674,7 +3677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>6102</v>
       </c>
@@ -3700,7 +3703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>6103</v>
       </c>
@@ -3726,7 +3729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>6104</v>
       </c>
@@ -3752,7 +3755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>6105</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>6106</v>
       </c>
@@ -3804,7 +3807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>6107</v>
       </c>
@@ -3830,7 +3833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>6108</v>
       </c>
@@ -3856,7 +3859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>6109</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>6110</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>6111</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>6112</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>6113</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>6114</v>
       </c>
@@ -4012,7 +4015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>6115</v>
       </c>
@@ -4038,7 +4041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>6116</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>6117</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>6201</v>
       </c>
@@ -4116,7 +4119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>6202</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>6203</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>6204</v>
       </c>
@@ -4194,7 +4197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>6205</v>
       </c>
@@ -4220,7 +4223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>6206</v>
       </c>
@@ -4246,7 +4249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>6301</v>
       </c>
@@ -4272,7 +4275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>6302</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>6303</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>6304</v>
       </c>
@@ -4350,7 +4353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>6305</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>6306</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>6307</v>
       </c>
@@ -4428,7 +4431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>6308</v>
       </c>
@@ -4454,7 +4457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>6309</v>
       </c>
@@ -4480,7 +4483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>6310</v>
       </c>
@@ -4506,7 +4509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>7101</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>7102</v>
       </c>
@@ -4558,7 +4561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>7103</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>7104</v>
       </c>
@@ -4610,7 +4613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>7105</v>
       </c>
@@ -4636,7 +4639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>7106</v>
       </c>
@@ -4662,7 +4665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>7107</v>
       </c>
@@ -4688,7 +4691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>7108</v>
       </c>
@@ -4714,7 +4717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>7109</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>7110</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>7201</v>
       </c>
@@ -4792,7 +4795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>7202</v>
       </c>
@@ -4818,7 +4821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>7203</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>7301</v>
       </c>
@@ -4870,7 +4873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>7302</v>
       </c>
@@ -4896,7 +4899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>7303</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>7304</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>7305</v>
       </c>
@@ -4974,7 +4977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>7306</v>
       </c>
@@ -5000,7 +5003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>7307</v>
       </c>
@@ -5026,7 +5029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>7308</v>
       </c>
@@ -5052,7 +5055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>7309</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>7401</v>
       </c>
@@ -5104,7 +5107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>7402</v>
       </c>
@@ -5130,7 +5133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>7403</v>
       </c>
@@ -5156,7 +5159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>7404</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>7405</v>
       </c>
@@ -5208,7 +5211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>7406</v>
       </c>
@@ -5234,7 +5237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>7407</v>
       </c>
@@ -5260,7 +5263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>7408</v>
       </c>
@@ -5286,7 +5289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>8101</v>
       </c>
@@ -5312,7 +5315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>8102</v>
       </c>
@@ -5338,7 +5341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>8103</v>
       </c>
@@ -5364,7 +5367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>8104</v>
       </c>
@@ -5390,7 +5393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>8105</v>
       </c>
@@ -5416,7 +5419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>8106</v>
       </c>
@@ -5442,7 +5445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>8107</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>8108</v>
       </c>
@@ -5494,7 +5497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>8109</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>8110</v>
       </c>
@@ -5546,7 +5549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>8111</v>
       </c>
@@ -5572,7 +5575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>8112</v>
       </c>
@@ -5598,7 +5601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>8201</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>8202</v>
       </c>
@@ -5650,7 +5653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>8203</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>8204</v>
       </c>
@@ -5702,7 +5705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>8205</v>
       </c>
@@ -5728,7 +5731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>8206</v>
       </c>
@@ -5754,7 +5757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>8207</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>8301</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>8302</v>
       </c>
@@ -5832,7 +5835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>8303</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>8304</v>
       </c>
@@ -5884,7 +5887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>8305</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>8306</v>
       </c>
@@ -5936,7 +5939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>8307</v>
       </c>
@@ -5962,7 +5965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>8308</v>
       </c>
@@ -5988,7 +5991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>8309</v>
       </c>
@@ -6014,7 +6017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>8310</v>
       </c>
@@ -6040,7 +6043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>8311</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>8312</v>
       </c>
@@ -6092,7 +6095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>8313</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>8314</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>9101</v>
       </c>
@@ -6170,7 +6173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>9102</v>
       </c>
@@ -6196,7 +6199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>9103</v>
       </c>
@@ -6222,7 +6225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>9104</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>9105</v>
       </c>
@@ -6274,7 +6277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>9106</v>
       </c>
@@ -6300,7 +6303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>9107</v>
       </c>
@@ -6326,7 +6329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>9108</v>
       </c>
@@ -6352,7 +6355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>9109</v>
       </c>
@@ -6378,7 +6381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>9110</v>
       </c>
@@ -6404,7 +6407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>9111</v>
       </c>
@@ -6430,7 +6433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>9112</v>
       </c>
@@ -6456,7 +6459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>9113</v>
       </c>
@@ -6482,7 +6485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>9114</v>
       </c>
@@ -6508,7 +6511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>9115</v>
       </c>
@@ -6534,7 +6537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>9116</v>
       </c>
@@ -6560,7 +6563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>9117</v>
       </c>
@@ -6586,7 +6589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>9118</v>
       </c>
@@ -6612,7 +6615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>9119</v>
       </c>
@@ -6638,7 +6641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>9120</v>
       </c>
@@ -6664,7 +6667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>9121</v>
       </c>
@@ -6690,7 +6693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>9201</v>
       </c>
@@ -6716,7 +6719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>9202</v>
       </c>
@@ -6742,7 +6745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>9203</v>
       </c>
@@ -6768,7 +6771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>9204</v>
       </c>
@@ -6794,7 +6797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>9205</v>
       </c>
@@ -6820,7 +6823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>9206</v>
       </c>
@@ -6846,7 +6849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>9207</v>
       </c>
@@ -6872,7 +6875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>9208</v>
       </c>
@@ -6898,7 +6901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>9209</v>
       </c>
@@ -6924,7 +6927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>9210</v>
       </c>
@@ -6950,7 +6953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>9211</v>
       </c>
@@ -6976,7 +6979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>10101</v>
       </c>
@@ -7002,7 +7005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>10102</v>
       </c>
@@ -7028,7 +7031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>10103</v>
       </c>
@@ -7050,7 +7053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>10104</v>
       </c>
@@ -7076,7 +7079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>10105</v>
       </c>
@@ -7102,7 +7105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>10106</v>
       </c>
@@ -7128,7 +7131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>10107</v>
       </c>
@@ -7154,7 +7157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>10108</v>
       </c>
@@ -7180,7 +7183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>10109</v>
       </c>
@@ -7206,7 +7209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>10201</v>
       </c>
@@ -7232,7 +7235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>10202</v>
       </c>
@@ -7258,7 +7261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>10203</v>
       </c>
@@ -7284,7 +7287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>10204</v>
       </c>
@@ -7310,7 +7313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>10205</v>
       </c>
@@ -7336,7 +7339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>10206</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>10207</v>
       </c>
@@ -7388,7 +7391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>10208</v>
       </c>
@@ -7414,7 +7417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>10209</v>
       </c>
@@ -7440,7 +7443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>10210</v>
       </c>
@@ -7466,7 +7469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>10301</v>
       </c>
@@ -7492,7 +7495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>10302</v>
       </c>
@@ -7518,7 +7521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>10303</v>
       </c>
@@ -7544,7 +7547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>10304</v>
       </c>
@@ -7570,7 +7573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>10305</v>
       </c>
@@ -7596,7 +7599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>10306</v>
       </c>
@@ -7622,7 +7625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>10307</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>10401</v>
       </c>
@@ -7670,7 +7673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>10402</v>
       </c>
@@ -7692,7 +7695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>10403</v>
       </c>
@@ -7714,7 +7717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>10404</v>
       </c>
@@ -7736,7 +7739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>11101</v>
       </c>
@@ -7762,7 +7765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>11102</v>
       </c>
@@ -7784,7 +7787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>11201</v>
       </c>
@@ -7810,7 +7813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>11202</v>
       </c>
@@ -7836,7 +7839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>11203</v>
       </c>
@@ -7858,7 +7861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>11301</v>
       </c>
@@ -7884,7 +7887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>11302</v>
       </c>
@@ -7906,7 +7909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>11303</v>
       </c>
@@ -7928,7 +7931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>11401</v>
       </c>
@@ -7954,7 +7957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>11402</v>
       </c>
@@ -7980,7 +7983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>12101</v>
       </c>
@@ -8006,7 +8009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>12102</v>
       </c>
@@ -8028,7 +8031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>12103</v>
       </c>
@@ -8050,7 +8053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>12104</v>
       </c>
@@ -8072,7 +8075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>12201</v>
       </c>
@@ -8094,7 +8097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>12301</v>
       </c>
@@ -8116,7 +8119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>12302</v>
       </c>
@@ -8138,7 +8141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>12303</v>
       </c>
@@ -8160,7 +8163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>12401</v>
       </c>
@@ -8186,7 +8189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>12402</v>
       </c>
@@ -8208,7 +8211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>13101</v>
       </c>
@@ -8234,7 +8237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>13102</v>
       </c>
@@ -8260,7 +8263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>13103</v>
       </c>
@@ -8286,7 +8289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>13104</v>
       </c>
@@ -8312,7 +8315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>13105</v>
       </c>
@@ -8338,7 +8341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>13106</v>
       </c>
@@ -8364,7 +8367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>13107</v>
       </c>
@@ -8390,7 +8393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>13108</v>
       </c>
@@ -8416,7 +8419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>13109</v>
       </c>
@@ -8442,7 +8445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>13110</v>
       </c>
@@ -8468,7 +8471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>13111</v>
       </c>
@@ -8494,7 +8497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>13112</v>
       </c>
@@ -8520,7 +8523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>13113</v>
       </c>
@@ -8546,7 +8549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>13114</v>
       </c>
@@ -8572,7 +8575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>13115</v>
       </c>
@@ -8598,7 +8601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>13116</v>
       </c>
@@ -8624,7 +8627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>13117</v>
       </c>
@@ -8650,7 +8653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>13118</v>
       </c>
@@ -8676,7 +8679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>13119</v>
       </c>
@@ -8702,7 +8705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>13120</v>
       </c>
@@ -8728,7 +8731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>13121</v>
       </c>
@@ -8754,7 +8757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>13122</v>
       </c>
@@ -8780,7 +8783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>13123</v>
       </c>
@@ -8806,7 +8809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>13124</v>
       </c>
@@ -8832,7 +8835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>13125</v>
       </c>
@@ -8858,7 +8861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>13126</v>
       </c>
@@ -8884,7 +8887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>13127</v>
       </c>
@@ -8910,7 +8913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>13128</v>
       </c>
@@ -8936,7 +8939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>13129</v>
       </c>
@@ -8962,7 +8965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
         <v>13130</v>
       </c>
@@ -8988,7 +8991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <v>13131</v>
       </c>
@@ -9014,7 +9017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <v>13132</v>
       </c>
@@ -9036,7 +9039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>13201</v>
       </c>
@@ -9062,7 +9065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
         <v>13202</v>
       </c>
@@ -9088,7 +9091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <v>13203</v>
       </c>
@@ -9114,7 +9117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
         <v>13301</v>
       </c>
@@ -9140,7 +9143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
         <v>13302</v>
       </c>
@@ -9166,7 +9169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
         <v>13303</v>
       </c>
@@ -9192,7 +9195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <v>13401</v>
       </c>
@@ -9218,7 +9221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
         <v>13402</v>
       </c>
@@ -9244,7 +9247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
         <v>13403</v>
       </c>
@@ -9270,7 +9273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
         <v>13404</v>
       </c>
@@ -9296,7 +9299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
         <v>13501</v>
       </c>
@@ -9322,7 +9325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
         <v>13502</v>
       </c>
@@ -9348,7 +9351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
         <v>13503</v>
       </c>
@@ -9374,7 +9377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
         <v>13504</v>
       </c>
@@ -9400,7 +9403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
         <v>13505</v>
       </c>
@@ -9426,7 +9429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
         <v>13601</v>
       </c>
@@ -9452,7 +9455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
         <v>13602</v>
       </c>
@@ -9478,7 +9481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
         <v>13603</v>
       </c>
@@ -9504,7 +9507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
         <v>13604</v>
       </c>
@@ -9530,7 +9533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
         <v>13605</v>
       </c>
@@ -9556,7 +9559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
         <v>14101</v>
       </c>
@@ -9582,7 +9585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
         <v>14102</v>
       </c>
@@ -9608,7 +9611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
         <v>14103</v>
       </c>
@@ -9634,7 +9637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
         <v>14104</v>
       </c>
@@ -9660,7 +9663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
         <v>14105</v>
       </c>
@@ -9686,7 +9689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
         <v>14106</v>
       </c>
@@ -9712,7 +9715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
         <v>14107</v>
       </c>
@@ -9738,7 +9741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
         <v>14108</v>
       </c>
@@ -9764,7 +9767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
         <v>14201</v>
       </c>
@@ -9790,7 +9793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
         <v>14202</v>
       </c>
@@ -9816,7 +9819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
         <v>14203</v>
       </c>
@@ -9842,7 +9845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
         <v>14204</v>
       </c>
@@ -9868,7 +9871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
         <v>15101</v>
       </c>
@@ -9894,7 +9897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
         <v>15102</v>
       </c>
@@ -9920,7 +9923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
         <v>15201</v>
       </c>
@@ -9946,7 +9949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
         <v>15202</v>
       </c>
@@ -9968,7 +9971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
         <v>16101</v>
       </c>
@@ -9994,7 +9997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
         <v>16102</v>
       </c>
@@ -10020,7 +10023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
         <v>16103</v>
       </c>
@@ -10046,7 +10049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
         <v>16104</v>
       </c>
@@ -10072,7 +10075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
         <v>16105</v>
       </c>
@@ -10098,7 +10101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
         <v>16106</v>
       </c>
@@ -10124,7 +10127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
         <v>16107</v>
       </c>
@@ -10150,7 +10153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
         <v>16108</v>
       </c>
@@ -10176,7 +10179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
         <v>16109</v>
       </c>
@@ -10202,7 +10205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
         <v>16201</v>
       </c>
@@ -10228,7 +10231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
         <v>16202</v>
       </c>
@@ -10254,7 +10257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
         <v>16203</v>
       </c>
@@ -10280,7 +10283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
         <v>16204</v>
       </c>
@@ -10306,7 +10309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
         <v>16205</v>
       </c>
@@ -10332,7 +10335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
         <v>16206</v>
       </c>
@@ -10358,7 +10361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
         <v>16207</v>
       </c>
@@ -10384,7 +10387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
         <v>16301</v>
       </c>
@@ -10410,7 +10413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
         <v>16302</v>
       </c>
@@ -10436,7 +10439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
         <v>16303</v>
       </c>
@@ -10462,7 +10465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
         <v>16304</v>
       </c>
@@ -10488,7 +10491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
         <v>16305</v>
       </c>
@@ -10526,19 +10529,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50890B85-8C3C-4AAB-8D77-21BA12A8AE5C}">
   <dimension ref="A1:H348"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="A330" sqref="A330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" customWidth="1"/>
     <col min="4" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>350</v>
       </c>
@@ -10549,7 +10552,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>324</v>
       </c>
@@ -10575,7 +10578,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1101</v>
       </c>
@@ -10601,7 +10604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1107</v>
       </c>
@@ -10627,7 +10630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1401</v>
       </c>
@@ -10653,7 +10656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1402</v>
       </c>
@@ -10679,7 +10682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1403</v>
       </c>
@@ -10701,7 +10704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1404</v>
       </c>
@@ -10727,7 +10730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1405</v>
       </c>
@@ -10753,7 +10756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2101</v>
       </c>
@@ -10779,7 +10782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2102</v>
       </c>
@@ -10805,7 +10808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2103</v>
       </c>
@@ -10831,7 +10834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2104</v>
       </c>
@@ -10857,7 +10860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2201</v>
       </c>
@@ -10883,7 +10886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2202</v>
       </c>
@@ -10905,7 +10908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2203</v>
       </c>
@@ -10931,7 +10934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>2301</v>
       </c>
@@ -10957,7 +10960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2302</v>
       </c>
@@ -10983,7 +10986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>3101</v>
       </c>
@@ -11009,7 +11012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>3102</v>
       </c>
@@ -11035,7 +11038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>3103</v>
       </c>
@@ -11061,7 +11064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>3201</v>
       </c>
@@ -11087,7 +11090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>3202</v>
       </c>
@@ -11113,7 +11116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>3301</v>
       </c>
@@ -11139,7 +11142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>3302</v>
       </c>
@@ -11165,7 +11168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>3303</v>
       </c>
@@ -11191,7 +11194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>3304</v>
       </c>
@@ -11217,7 +11220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>4101</v>
       </c>
@@ -11243,7 +11246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>4102</v>
       </c>
@@ -11269,7 +11272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>4103</v>
       </c>
@@ -11295,7 +11298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>4104</v>
       </c>
@@ -11321,7 +11324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>4105</v>
       </c>
@@ -11347,7 +11350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>4106</v>
       </c>
@@ -11373,7 +11376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>4201</v>
       </c>
@@ -11399,7 +11402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>4202</v>
       </c>
@@ -11425,7 +11428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>4203</v>
       </c>
@@ -11451,7 +11454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>4204</v>
       </c>
@@ -11477,7 +11480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>4301</v>
       </c>
@@ -11503,7 +11506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>4302</v>
       </c>
@@ -11529,7 +11532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>4303</v>
       </c>
@@ -11555,7 +11558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>4304</v>
       </c>
@@ -11581,7 +11584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>4305</v>
       </c>
@@ -11607,7 +11610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>5101</v>
       </c>
@@ -11633,7 +11636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>5102</v>
       </c>
@@ -11659,7 +11662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>5103</v>
       </c>
@@ -11685,7 +11688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>5104</v>
       </c>
@@ -11707,7 +11710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>5105</v>
       </c>
@@ -11733,7 +11736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>5107</v>
       </c>
@@ -11759,7 +11762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>5109</v>
       </c>
@@ -11785,7 +11788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>5201</v>
       </c>
@@ -11807,7 +11810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>5301</v>
       </c>
@@ -11833,7 +11836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>5302</v>
       </c>
@@ -11859,7 +11862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>5303</v>
       </c>
@@ -11885,7 +11888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>5304</v>
       </c>
@@ -11911,7 +11914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>5401</v>
       </c>
@@ -11937,7 +11940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>5402</v>
       </c>
@@ -11963,7 +11966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>5403</v>
       </c>
@@ -11989,7 +11992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>5404</v>
       </c>
@@ -12015,7 +12018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>5405</v>
       </c>
@@ -12041,7 +12044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>5501</v>
       </c>
@@ -12067,7 +12070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>5502</v>
       </c>
@@ -12093,7 +12096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>5503</v>
       </c>
@@ -12119,7 +12122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>5504</v>
       </c>
@@ -12145,7 +12148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>5506</v>
       </c>
@@ -12171,7 +12174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>5601</v>
       </c>
@@ -12197,7 +12200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>5602</v>
       </c>
@@ -12223,7 +12226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>5603</v>
       </c>
@@ -12249,7 +12252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>5604</v>
       </c>
@@ -12275,7 +12278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>5605</v>
       </c>
@@ -12301,7 +12304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>5606</v>
       </c>
@@ -12327,7 +12330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>5701</v>
       </c>
@@ -12353,7 +12356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>5702</v>
       </c>
@@ -12379,7 +12382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>5703</v>
       </c>
@@ -12405,7 +12408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>5704</v>
       </c>
@@ -12431,7 +12434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>5705</v>
       </c>
@@ -12457,7 +12460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>5706</v>
       </c>
@@ -12483,7 +12486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>5801</v>
       </c>
@@ -12509,7 +12512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>5802</v>
       </c>
@@ -12535,7 +12538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>5803</v>
       </c>
@@ -12561,7 +12564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>5804</v>
       </c>
@@ -12587,7 +12590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>6101</v>
       </c>
@@ -12613,7 +12616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>6102</v>
       </c>
@@ -12639,7 +12642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>6103</v>
       </c>
@@ -12665,7 +12668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>6104</v>
       </c>
@@ -12691,7 +12694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>6105</v>
       </c>
@@ -12717,7 +12720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>6106</v>
       </c>
@@ -12743,7 +12746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>6107</v>
       </c>
@@ -12769,7 +12772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>6108</v>
       </c>
@@ -12795,7 +12798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>6109</v>
       </c>
@@ -12821,7 +12824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>6110</v>
       </c>
@@ -12847,7 +12850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>6111</v>
       </c>
@@ -12873,7 +12876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>6112</v>
       </c>
@@ -12899,7 +12902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>6113</v>
       </c>
@@ -12925,7 +12928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>6114</v>
       </c>
@@ -12951,7 +12954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>6115</v>
       </c>
@@ -12977,7 +12980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>6116</v>
       </c>
@@ -13003,7 +13006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>6117</v>
       </c>
@@ -13029,7 +13032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>6201</v>
       </c>
@@ -13055,7 +13058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>6202</v>
       </c>
@@ -13081,7 +13084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>6203</v>
       </c>
@@ -13107,7 +13110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>6204</v>
       </c>
@@ -13133,7 +13136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>6205</v>
       </c>
@@ -13159,7 +13162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>6206</v>
       </c>
@@ -13185,7 +13188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>6301</v>
       </c>
@@ -13211,7 +13214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>6302</v>
       </c>
@@ -13237,7 +13240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>6303</v>
       </c>
@@ -13263,7 +13266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>6304</v>
       </c>
@@ -13289,7 +13292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>6305</v>
       </c>
@@ -13315,7 +13318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>6306</v>
       </c>
@@ -13341,7 +13344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>6307</v>
       </c>
@@ -13367,7 +13370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>6308</v>
       </c>
@@ -13393,7 +13396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>6309</v>
       </c>
@@ -13419,7 +13422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>6310</v>
       </c>
@@ -13445,7 +13448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>7101</v>
       </c>
@@ -13471,7 +13474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>7102</v>
       </c>
@@ -13497,7 +13500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>7103</v>
       </c>
@@ -13523,7 +13526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>7104</v>
       </c>
@@ -13549,7 +13552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>7105</v>
       </c>
@@ -13575,7 +13578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>7106</v>
       </c>
@@ -13601,7 +13604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>7107</v>
       </c>
@@ -13627,7 +13630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>7108</v>
       </c>
@@ -13653,7 +13656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>7109</v>
       </c>
@@ -13679,7 +13682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>7110</v>
       </c>
@@ -13705,7 +13708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>7201</v>
       </c>
@@ -13731,7 +13734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>7202</v>
       </c>
@@ -13757,7 +13760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>7203</v>
       </c>
@@ -13783,7 +13786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>7301</v>
       </c>
@@ -13809,7 +13812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>7302</v>
       </c>
@@ -13835,7 +13838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>7303</v>
       </c>
@@ -13861,7 +13864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>7304</v>
       </c>
@@ -13887,7 +13890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>7305</v>
       </c>
@@ -13913,7 +13916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>7306</v>
       </c>
@@ -13939,7 +13942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>7307</v>
       </c>
@@ -13965,7 +13968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>7308</v>
       </c>
@@ -13991,7 +13994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>7309</v>
       </c>
@@ -14017,7 +14020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>7401</v>
       </c>
@@ -14043,7 +14046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>7402</v>
       </c>
@@ -14069,7 +14072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>7403</v>
       </c>
@@ -14095,7 +14098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>7404</v>
       </c>
@@ -14121,7 +14124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>7405</v>
       </c>
@@ -14147,7 +14150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>7406</v>
       </c>
@@ -14173,7 +14176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>7407</v>
       </c>
@@ -14199,7 +14202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>7408</v>
       </c>
@@ -14225,7 +14228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>8101</v>
       </c>
@@ -14251,7 +14254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>8102</v>
       </c>
@@ -14277,7 +14280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>8103</v>
       </c>
@@ -14303,7 +14306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>8104</v>
       </c>
@@ -14329,7 +14332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>8105</v>
       </c>
@@ -14355,7 +14358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>8106</v>
       </c>
@@ -14381,7 +14384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>8107</v>
       </c>
@@ -14407,7 +14410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>8108</v>
       </c>
@@ -14433,7 +14436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>8109</v>
       </c>
@@ -14459,7 +14462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>8110</v>
       </c>
@@ -14485,7 +14488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>8111</v>
       </c>
@@ -14511,7 +14514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>8112</v>
       </c>
@@ -14537,7 +14540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>8201</v>
       </c>
@@ -14563,7 +14566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>8202</v>
       </c>
@@ -14589,7 +14592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>8203</v>
       </c>
@@ -14615,7 +14618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>8204</v>
       </c>
@@ -14641,7 +14644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>8205</v>
       </c>
@@ -14667,7 +14670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>8206</v>
       </c>
@@ -14693,7 +14696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>8207</v>
       </c>
@@ -14719,7 +14722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>8301</v>
       </c>
@@ -14745,7 +14748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>8302</v>
       </c>
@@ -14771,7 +14774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>8303</v>
       </c>
@@ -14797,7 +14800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>8304</v>
       </c>
@@ -14823,7 +14826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>8305</v>
       </c>
@@ -14849,7 +14852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>8306</v>
       </c>
@@ -14875,7 +14878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>8307</v>
       </c>
@@ -14901,7 +14904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>8308</v>
       </c>
@@ -14927,7 +14930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>8309</v>
       </c>
@@ -14953,7 +14956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>8310</v>
       </c>
@@ -14979,7 +14982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>8311</v>
       </c>
@@ -15005,7 +15008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>8312</v>
       </c>
@@ -15031,7 +15034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>8313</v>
       </c>
@@ -15057,7 +15060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>8314</v>
       </c>
@@ -15083,7 +15086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>9101</v>
       </c>
@@ -15109,7 +15112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>9102</v>
       </c>
@@ -15135,7 +15138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>9103</v>
       </c>
@@ -15161,7 +15164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>9104</v>
       </c>
@@ -15187,7 +15190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>9105</v>
       </c>
@@ -15213,7 +15216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>9106</v>
       </c>
@@ -15239,7 +15242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>9107</v>
       </c>
@@ -15265,7 +15268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>9108</v>
       </c>
@@ -15291,7 +15294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>9109</v>
       </c>
@@ -15317,7 +15320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>9110</v>
       </c>
@@ -15343,7 +15346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>9111</v>
       </c>
@@ -15369,7 +15372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>9112</v>
       </c>
@@ -15395,7 +15398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>9113</v>
       </c>
@@ -15421,7 +15424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>9114</v>
       </c>
@@ -15447,7 +15450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>9115</v>
       </c>
@@ -15473,7 +15476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>9116</v>
       </c>
@@ -15499,7 +15502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>9117</v>
       </c>
@@ -15525,7 +15528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>9118</v>
       </c>
@@ -15551,7 +15554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>9119</v>
       </c>
@@ -15577,7 +15580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>9120</v>
       </c>
@@ -15603,7 +15606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>9121</v>
       </c>
@@ -15629,7 +15632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>9201</v>
       </c>
@@ -15655,7 +15658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>9202</v>
       </c>
@@ -15681,7 +15684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>9203</v>
       </c>
@@ -15707,7 +15710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>9204</v>
       </c>
@@ -15733,7 +15736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>9205</v>
       </c>
@@ -15759,7 +15762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>9206</v>
       </c>
@@ -15785,7 +15788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>9207</v>
       </c>
@@ -15811,7 +15814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>9208</v>
       </c>
@@ -15837,7 +15840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>9209</v>
       </c>
@@ -15863,7 +15866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>9210</v>
       </c>
@@ -15889,7 +15892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>9211</v>
       </c>
@@ -15915,7 +15918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>10101</v>
       </c>
@@ -15941,7 +15944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>10102</v>
       </c>
@@ -15967,7 +15970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>10103</v>
       </c>
@@ -15989,7 +15992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>10104</v>
       </c>
@@ -16015,7 +16018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>10105</v>
       </c>
@@ -16041,7 +16044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>10106</v>
       </c>
@@ -16067,7 +16070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>10107</v>
       </c>
@@ -16093,7 +16096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>10108</v>
       </c>
@@ -16119,7 +16122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>10109</v>
       </c>
@@ -16145,7 +16148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>10201</v>
       </c>
@@ -16171,7 +16174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>10202</v>
       </c>
@@ -16197,7 +16200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>10203</v>
       </c>
@@ -16223,7 +16226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>10204</v>
       </c>
@@ -16249,7 +16252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>10205</v>
       </c>
@@ -16275,7 +16278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>10206</v>
       </c>
@@ -16301,7 +16304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>10207</v>
       </c>
@@ -16327,7 +16330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>10208</v>
       </c>
@@ -16353,7 +16356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>10209</v>
       </c>
@@ -16379,7 +16382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>10210</v>
       </c>
@@ -16405,7 +16408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>10301</v>
       </c>
@@ -16431,7 +16434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>10302</v>
       </c>
@@ -16457,7 +16460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>10303</v>
       </c>
@@ -16483,7 +16486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>10304</v>
       </c>
@@ -16509,7 +16512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>10305</v>
       </c>
@@ -16535,7 +16538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>10306</v>
       </c>
@@ -16561,7 +16564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>10307</v>
       </c>
@@ -16587,7 +16590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>10401</v>
       </c>
@@ -16609,7 +16612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>10402</v>
       </c>
@@ -16631,7 +16634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>10403</v>
       </c>
@@ -16653,7 +16656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>10404</v>
       </c>
@@ -16675,7 +16678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>11101</v>
       </c>
@@ -16701,7 +16704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>11102</v>
       </c>
@@ -16723,7 +16726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>11201</v>
       </c>
@@ -16749,7 +16752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>11202</v>
       </c>
@@ -16775,7 +16778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>11203</v>
       </c>
@@ -16797,7 +16800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>11301</v>
       </c>
@@ -16823,7 +16826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>11302</v>
       </c>
@@ -16845,7 +16848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>11303</v>
       </c>
@@ -16867,7 +16870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>11401</v>
       </c>
@@ -16893,7 +16896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>11402</v>
       </c>
@@ -16919,7 +16922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>12101</v>
       </c>
@@ -16945,7 +16948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>12102</v>
       </c>
@@ -16967,7 +16970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>12103</v>
       </c>
@@ -16989,7 +16992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>12104</v>
       </c>
@@ -17011,7 +17014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>12201</v>
       </c>
@@ -17033,7 +17036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>12301</v>
       </c>
@@ -17059,7 +17062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>12302</v>
       </c>
@@ -17081,7 +17084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>12303</v>
       </c>
@@ -17103,7 +17106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>12401</v>
       </c>
@@ -17129,7 +17132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>12402</v>
       </c>
@@ -17151,7 +17154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>13101</v>
       </c>
@@ -17177,7 +17180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>13102</v>
       </c>
@@ -17203,7 +17206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>13103</v>
       </c>
@@ -17229,7 +17232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>13104</v>
       </c>
@@ -17255,7 +17258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>13105</v>
       </c>
@@ -17281,7 +17284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>13106</v>
       </c>
@@ -17307,7 +17310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>13107</v>
       </c>
@@ -17333,7 +17336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>13108</v>
       </c>
@@ -17359,7 +17362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>13109</v>
       </c>
@@ -17385,7 +17388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>13110</v>
       </c>
@@ -17411,7 +17414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>13111</v>
       </c>
@@ -17437,7 +17440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>13112</v>
       </c>
@@ -17463,7 +17466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>13113</v>
       </c>
@@ -17489,7 +17492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>13114</v>
       </c>
@@ -17515,7 +17518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>13115</v>
       </c>
@@ -17541,7 +17544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>13116</v>
       </c>
@@ -17567,7 +17570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>13117</v>
       </c>
@@ -17593,7 +17596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>13118</v>
       </c>
@@ -17619,7 +17622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>13119</v>
       </c>
@@ -17645,7 +17648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>13120</v>
       </c>
@@ -17671,7 +17674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>13121</v>
       </c>
@@ -17697,7 +17700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>13122</v>
       </c>
@@ -17723,7 +17726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>13123</v>
       </c>
@@ -17749,7 +17752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>13124</v>
       </c>
@@ -17775,7 +17778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>13125</v>
       </c>
@@ -17801,7 +17804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>13126</v>
       </c>
@@ -17827,7 +17830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>13127</v>
       </c>
@@ -17853,7 +17856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>13128</v>
       </c>
@@ -17879,7 +17882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>13129</v>
       </c>
@@ -17905,7 +17908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
         <v>13130</v>
       </c>
@@ -17931,7 +17934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <v>13131</v>
       </c>
@@ -17957,7 +17960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <v>13132</v>
       </c>
@@ -17983,7 +17986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>13201</v>
       </c>
@@ -18009,7 +18012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
         <v>13202</v>
       </c>
@@ -18035,7 +18038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <v>13203</v>
       </c>
@@ -18061,7 +18064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
         <v>13301</v>
       </c>
@@ -18087,7 +18090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
         <v>13302</v>
       </c>
@@ -18113,7 +18116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
         <v>13303</v>
       </c>
@@ -18139,7 +18142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <v>13401</v>
       </c>
@@ -18165,7 +18168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
         <v>13402</v>
       </c>
@@ -18191,7 +18194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
         <v>13403</v>
       </c>
@@ -18217,7 +18220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
         <v>13404</v>
       </c>
@@ -18243,7 +18246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
         <v>13501</v>
       </c>
@@ -18269,7 +18272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
         <v>13502</v>
       </c>
@@ -18295,7 +18298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
         <v>13503</v>
       </c>
@@ -18321,7 +18324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
         <v>13504</v>
       </c>
@@ -18347,7 +18350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
         <v>13505</v>
       </c>
@@ -18373,7 +18376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
         <v>13601</v>
       </c>
@@ -18399,7 +18402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
         <v>13602</v>
       </c>
@@ -18425,7 +18428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
         <v>13603</v>
       </c>
@@ -18451,7 +18454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
         <v>13604</v>
       </c>
@@ -18477,7 +18480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
         <v>13605</v>
       </c>
@@ -18503,7 +18506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
         <v>14101</v>
       </c>
@@ -18529,7 +18532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
         <v>14102</v>
       </c>
@@ -18555,7 +18558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
         <v>14103</v>
       </c>
@@ -18581,7 +18584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
         <v>14104</v>
       </c>
@@ -18607,7 +18610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
         <v>14105</v>
       </c>
@@ -18633,7 +18636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
         <v>14106</v>
       </c>
@@ -18659,7 +18662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
         <v>14107</v>
       </c>
@@ -18685,7 +18688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
         <v>14108</v>
       </c>
@@ -18711,7 +18714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
         <v>14201</v>
       </c>
@@ -18737,7 +18740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
         <v>14202</v>
       </c>
@@ -18763,7 +18766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
         <v>14203</v>
       </c>
@@ -18789,7 +18792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
         <v>14204</v>
       </c>
@@ -18815,7 +18818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
         <v>15101</v>
       </c>
@@ -18841,7 +18844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
         <v>15102</v>
       </c>
@@ -18867,7 +18870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
         <v>15201</v>
       </c>
@@ -18893,7 +18896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
         <v>15202</v>
       </c>
@@ -18915,7 +18918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
         <v>16101</v>
       </c>
@@ -18941,7 +18944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
         <v>16102</v>
       </c>
@@ -18967,7 +18970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
         <v>16103</v>
       </c>
@@ -18993,7 +18996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
         <v>16104</v>
       </c>
@@ -19019,7 +19022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
         <v>16105</v>
       </c>
@@ -19045,7 +19048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
         <v>16106</v>
       </c>
@@ -19071,7 +19074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
         <v>16107</v>
       </c>
@@ -19097,7 +19100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
         <v>16108</v>
       </c>
@@ -19123,7 +19126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
         <v>16109</v>
       </c>
@@ -19149,7 +19152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
         <v>16201</v>
       </c>
@@ -19175,7 +19178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
         <v>16202</v>
       </c>
@@ -19201,7 +19204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
         <v>16203</v>
       </c>
@@ -19227,7 +19230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
         <v>16204</v>
       </c>
@@ -19253,7 +19256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
         <v>16205</v>
       </c>
@@ -19279,7 +19282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
         <v>16206</v>
       </c>
@@ -19305,7 +19308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
         <v>16207</v>
       </c>
@@ -19331,7 +19334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
         <v>16301</v>
       </c>
@@ -19357,7 +19360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
         <v>16302</v>
       </c>
@@ -19383,7 +19386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
         <v>16303</v>
       </c>
@@ -19409,7 +19412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
         <v>16304</v>
       </c>
@@ -19435,7 +19438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
         <v>16305</v>
       </c>
@@ -19462,6 +19465,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:H348" xr:uid="{50890B85-8C3C-4AAB-8D77-21BA12A8AE5C}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
